--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.589083666666666</v>
+        <v>1.334522</v>
       </c>
       <c r="H2">
-        <v>13.767251</v>
+        <v>4.003566</v>
       </c>
       <c r="I2">
-        <v>0.7170542197587623</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="J2">
-        <v>0.7170542197587624</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q2">
-        <v>291.1938472276144</v>
+        <v>0.08604953371933334</v>
       </c>
       <c r="R2">
-        <v>2620.744625048529</v>
+        <v>0.774445803474</v>
       </c>
       <c r="S2">
-        <v>0.2676806053316598</v>
+        <v>0.0004537687031138063</v>
       </c>
       <c r="T2">
-        <v>0.2676806053316598</v>
+        <v>0.0004537687031138063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.589083666666666</v>
+        <v>1.334522</v>
       </c>
       <c r="H3">
-        <v>13.767251</v>
+        <v>4.003566</v>
       </c>
       <c r="I3">
-        <v>0.7170542197587623</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="J3">
-        <v>0.7170542197587624</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P3">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q3">
-        <v>1.767387673765111</v>
+        <v>0.5139626784973333</v>
       </c>
       <c r="R3">
-        <v>15.906489063886</v>
+        <v>4.625664106476</v>
       </c>
       <c r="S3">
-        <v>0.001624675132642345</v>
+        <v>0.002710301473931566</v>
       </c>
       <c r="T3">
-        <v>0.001624675132642345</v>
+        <v>0.002710301473931566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.589083666666666</v>
+        <v>1.334522</v>
       </c>
       <c r="H4">
-        <v>13.767251</v>
+        <v>4.003566</v>
       </c>
       <c r="I4">
-        <v>0.7170542197587623</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="J4">
-        <v>0.7170542197587624</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N4">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q4">
-        <v>0.09701781779700001</v>
+        <v>0.01090971735</v>
       </c>
       <c r="R4">
-        <v>0.8731603601730001</v>
+        <v>0.09818745615</v>
       </c>
       <c r="S4">
-        <v>8.918384932617794E-05</v>
+        <v>5.753068121664245E-05</v>
       </c>
       <c r="T4">
-        <v>8.918384932617795E-05</v>
+        <v>5.753068121664245E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.589083666666666</v>
+        <v>1.334522</v>
       </c>
       <c r="H5">
-        <v>13.767251</v>
+        <v>4.003566</v>
       </c>
       <c r="I5">
-        <v>0.7170542197587623</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="J5">
-        <v>0.7170542197587624</v>
+        <v>0.4120903366177529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N5">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q5">
-        <v>486.982485247779</v>
+        <v>77.53501689977401</v>
       </c>
       <c r="R5">
-        <v>4382.84236723001</v>
+        <v>697.8151520979661</v>
       </c>
       <c r="S5">
-        <v>0.447659755445134</v>
+        <v>0.4088687357594909</v>
       </c>
       <c r="T5">
-        <v>0.447659755445134</v>
+        <v>0.4088687357594909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>4.486577</v>
       </c>
       <c r="I6">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="J6">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N6">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q6">
-        <v>94.89647697372034</v>
+        <v>0.09643099647811113</v>
       </c>
       <c r="R6">
-        <v>854.0682927634831</v>
+        <v>0.867878968303</v>
       </c>
       <c r="S6">
-        <v>0.08723380195705753</v>
+        <v>0.0005085137166991208</v>
       </c>
       <c r="T6">
-        <v>0.08723380195705754</v>
+        <v>0.0005085137166991207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.486577</v>
       </c>
       <c r="I7">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="J7">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.155386</v>
       </c>
       <c r="O7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q7">
         <v>0.5759698059691112</v>
@@ -883,10 +883,10 @@
         <v>5.183728253722001</v>
       </c>
       <c r="S7">
-        <v>0.0005294615520981707</v>
+        <v>0.003037286323244693</v>
       </c>
       <c r="T7">
-        <v>0.0005294615520981708</v>
+        <v>0.003037286323244694</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>4.486577</v>
       </c>
       <c r="I8">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="J8">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N8">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q8">
-        <v>0.03161690811900001</v>
+        <v>0.012225922325</v>
       </c>
       <c r="R8">
-        <v>0.2845521730710001</v>
+        <v>0.110033300925</v>
       </c>
       <c r="S8">
-        <v>2.906391458674615E-05</v>
+        <v>6.447148145950886E-05</v>
       </c>
       <c r="T8">
-        <v>2.906391458674616E-05</v>
+        <v>6.447148145950887E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.486577</v>
       </c>
       <c r="I9">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="J9">
-        <v>0.2336791106752255</v>
+        <v>0.4618070555578372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N9">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q9">
-        <v>158.701575043233</v>
+        <v>86.88924411815302</v>
       </c>
       <c r="R9">
-        <v>1428.314175389097</v>
+        <v>782.0031970633771</v>
       </c>
       <c r="S9">
-        <v>0.145886783251483</v>
+        <v>0.4581967840364339</v>
       </c>
       <c r="T9">
-        <v>0.1458867832514831</v>
+        <v>0.4581967840364339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3153023333333333</v>
+        <v>0.4083733333333333</v>
       </c>
       <c r="H10">
-        <v>0.9459069999999999</v>
+        <v>1.22512</v>
       </c>
       <c r="I10">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="J10">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N10">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q10">
-        <v>20.00706593128367</v>
+        <v>0.02633177640888889</v>
       </c>
       <c r="R10">
-        <v>180.063593381553</v>
+        <v>0.23698598768</v>
       </c>
       <c r="S10">
-        <v>0.018391540791074</v>
+        <v>0.0001388564878307954</v>
       </c>
       <c r="T10">
-        <v>0.018391540791074</v>
+        <v>0.0001388564878307954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3153023333333333</v>
+        <v>0.4083733333333333</v>
       </c>
       <c r="H11">
-        <v>0.9459069999999999</v>
+        <v>1.22512</v>
       </c>
       <c r="I11">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="J11">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.155386</v>
       </c>
       <c r="O11">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P11">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q11">
-        <v>0.1214319672335555</v>
+        <v>0.1572762773688889</v>
       </c>
       <c r="R11">
-        <v>1.092887705102</v>
+        <v>1.41548649632</v>
       </c>
       <c r="S11">
-        <v>0.000111626611637452</v>
+        <v>0.0008293717505201712</v>
       </c>
       <c r="T11">
-        <v>0.000111626611637452</v>
+        <v>0.0008293717505201714</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3153023333333333</v>
+        <v>0.4083733333333333</v>
       </c>
       <c r="H12">
-        <v>0.9459069999999999</v>
+        <v>1.22512</v>
       </c>
       <c r="I12">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="J12">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N12">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q12">
-        <v>0.006665806629</v>
+        <v>0.003338452</v>
       </c>
       <c r="R12">
-        <v>0.059992259661</v>
+        <v>0.030046068</v>
       </c>
       <c r="S12">
-        <v>6.127557880987061E-06</v>
+        <v>1.760480236172777E-05</v>
       </c>
       <c r="T12">
-        <v>6.127557880987062E-06</v>
+        <v>1.760480236172777E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3153023333333333</v>
+        <v>0.4083733333333333</v>
       </c>
       <c r="H13">
-        <v>0.9459069999999999</v>
+        <v>1.22512</v>
       </c>
       <c r="I13">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="J13">
-        <v>0.04926666956601224</v>
+        <v>0.1261026078244099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N13">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q13">
-        <v>33.45912278880299</v>
+        <v>23.72627300368</v>
       </c>
       <c r="R13">
-        <v>301.132105099227</v>
+        <v>213.53645703312</v>
       </c>
       <c r="S13">
-        <v>0.0307573746054198</v>
+        <v>0.1251167747836972</v>
       </c>
       <c r="T13">
-        <v>0.03075737460541981</v>
+        <v>0.1251167747836972</v>
       </c>
     </row>
   </sheetData>
